--- a/Excel/ProjectConfig/StartSceneConfig.xlsx
+++ b/Excel/ProjectConfig/StartSceneConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\ProjectConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\ProjectConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14C5CF-BCDF-4769-81AF-DEB25F1D969C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -556,7 +555,7 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="5">
@@ -576,7 +575,7 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="5">
@@ -596,7 +595,7 @@
       <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="5">
@@ -616,7 +615,7 @@
       <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="5">

--- a/Excel/ProjectConfig/StartSceneConfig.xlsx
+++ b/Excel/ProjectConfig/StartSceneConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -76,6 +76,17 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2</t>
   </si>
 </sst>
 </file>
@@ -455,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H10"/>
+  <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -625,10 +636,30 @@
         <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" s="5">
         <v>10006</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10007</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ProjectConfig/StartSceneConfig.xlsx
+++ b/Excel/ProjectConfig/StartSceneConfig.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/ProjectConfig/StartSceneConfig.xlsx
+++ b/Excel/ProjectConfig/StartSceneConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>Map2</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -623,7 +631,7 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="3">
@@ -633,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H10" s="5">
         <v>10006</v>
@@ -649,17 +657,37 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="5">
         <v>10007</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10008</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ProjectConfig/StartSceneConfig.xlsx
+++ b/Excel/ProjectConfig/StartSceneConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -89,11 +89,19 @@
     <t>Map2</t>
   </si>
   <si>
-    <t>UnitCache</t>
+    <t>DBCache</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UnitCache</t>
+    <t>DBCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -641,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="5">
         <v>10006</v>
@@ -661,33 +669,53 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H11" s="5">
         <v>10007</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="5">
         <v>10008</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10009</v>
       </c>
     </row>
   </sheetData>
